--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_0.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9972838512173302</v>
+        <v>0.9990008857812452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9959791492217674</v>
+        <v>0.9982727446734563</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9890823139516712</v>
+        <v>0.999531650747944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9921643692574003</v>
+        <v>0.9994665729139128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9924958283536918</v>
+        <v>0.9995911966677435</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002535405663470093</v>
+        <v>0.0009326292671620543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003753287706529269</v>
+        <v>0.001612317029582305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007312147507444725</v>
+        <v>0.0001892810977929609</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006634077495053146</v>
+        <v>0.0003570058838816718</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003987777628475019</v>
+        <v>0.0002731434908373164</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005760896436149233</v>
+        <v>0.003225083572136414</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05035281187252697</v>
+        <v>0.0305389794715222</v>
       </c>
       <c r="N2" t="n">
-        <v>1.065187570784075</v>
+        <v>1.023978741250114</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05249643531863039</v>
+        <v>0.03183908705202743</v>
       </c>
       <c r="P2" t="n">
-        <v>61.95480325940824</v>
+        <v>63.95500558350258</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.42669888111325</v>
+        <v>94.4269012052076</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9968499576968877</v>
+        <v>0.9987679399609329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.995538681035766</v>
+        <v>0.9980652158483978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9881969105311793</v>
+        <v>0.9994374171105024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9910621481738381</v>
+        <v>0.9993433076683599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9918500711019596</v>
+        <v>0.9995009617494736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00294042621907888</v>
+        <v>0.001150073965283771</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004164445423842783</v>
+        <v>0.001806036078311848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007905148660397279</v>
+        <v>0.0002273651691685219</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007567278704405506</v>
+        <v>0.0004395034155749296</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004330938265418915</v>
+        <v>0.0003334342923717257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00627299049720083</v>
+        <v>0.00357755728720966</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05422569703635796</v>
+        <v>0.03391274045670405</v>
       </c>
       <c r="N3" t="n">
-        <v>1.075601015274696</v>
+        <v>1.029569440937609</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05653419722186317</v>
+        <v>0.03535647602699649</v>
       </c>
       <c r="P3" t="n">
-        <v>61.65840147132646</v>
+        <v>63.53585804207442</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.13029709303147</v>
+        <v>94.00775366377943</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9963224302983237</v>
+        <v>0.9984804658459845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9950045318945869</v>
+        <v>0.9978059096457809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871693969266017</v>
+        <v>0.9993221192566204</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9897427030127324</v>
+        <v>0.9991909113689879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9910974562022528</v>
+        <v>0.9993897664654815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003432849889861748</v>
+        <v>0.001418418432932958</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004663050200696012</v>
+        <v>0.002048087036227971</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008593328464187118</v>
+        <v>0.0002739622423145678</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008684393808063896</v>
+        <v>0.0005414974405816153</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004730883922496754</v>
+        <v>0.0004077298414480915</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00684188707991651</v>
+        <v>0.003969323532263228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05859052730486173</v>
+        <v>0.03766189630027886</v>
       </c>
       <c r="N4" t="n">
-        <v>1.088261672840232</v>
+        <v>1.036468819696372</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06108484735134141</v>
+        <v>0.03926524119665479</v>
       </c>
       <c r="P4" t="n">
-        <v>61.34872898221455</v>
+        <v>63.11642561541422</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.82062460391957</v>
+        <v>93.58832123711923</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956797936415798</v>
+        <v>0.9981257102240076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9943551937043053</v>
+        <v>0.9974822687172137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9859698465435959</v>
+        <v>0.9991812043439833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9881581008781297</v>
+        <v>0.9990027390441427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9902153064741839</v>
+        <v>0.9992529058518992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004032723000443158</v>
+        <v>0.001749567234076213</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005269178898671584</v>
+        <v>0.002350191636850499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009396730330143219</v>
+        <v>0.0003309123265567452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001002600544152543</v>
+        <v>0.0006674352283422069</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005199665437147881</v>
+        <v>0.000499173777449476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0074740261829027</v>
+        <v>0.004404542668603542</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0635037243037222</v>
+        <v>0.04182782846474597</v>
       </c>
       <c r="N5" t="n">
-        <v>1.103684952602086</v>
+        <v>1.044982954623817</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06620720931816326</v>
+        <v>0.04360852571803169</v>
       </c>
       <c r="P5" t="n">
-        <v>61.02662689740417</v>
+        <v>62.69677363288542</v>
       </c>
       <c r="Q5" t="n">
-        <v>91.49852251910919</v>
+        <v>93.16866925459044</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9948960985469162</v>
+        <v>0.9976881352995675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9935646978538024</v>
+        <v>0.9970790377228046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9845647006877173</v>
+        <v>0.9990091963084429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9862511384114594</v>
+        <v>0.9987705015219642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9891779174061784</v>
+        <v>0.9990845722594229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00476426797107277</v>
+        <v>0.002158024218721883</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006007072076358425</v>
+        <v>0.002726590070336362</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01033783027771239</v>
+        <v>0.000400428546884584</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001164054512564683</v>
+        <v>0.0008228644595122611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005750942395138534</v>
+        <v>0.0006116465031984226</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008176288292961532</v>
+        <v>0.004887704103077803</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06902367688752005</v>
+        <v>0.04645453926928867</v>
       </c>
       <c r="N6" t="n">
-        <v>1.122493634874012</v>
+        <v>1.055484752810381</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07196215771133049</v>
+        <v>0.04843220518013548</v>
       </c>
       <c r="P6" t="n">
-        <v>60.69322275979073</v>
+        <v>62.27712437889296</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.16511838149574</v>
+        <v>92.74902000059798</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.993939733068582</v>
+        <v>0.9971482919930965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9926019846092843</v>
+        <v>0.9965771031874044</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9829187706922001</v>
+        <v>0.9987986512859076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9839530781012983</v>
+        <v>0.9984838677007797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9879576385029031</v>
+        <v>0.998877340240556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005656993165504959</v>
+        <v>0.002661944248929965</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006905722631888581</v>
+        <v>0.003195123926752737</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01144019600437579</v>
+        <v>0.000485519305170987</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00135862098317476</v>
+        <v>0.001014699413813136</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006399408493775273</v>
+        <v>0.0007501093594920616</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008956373985003903</v>
+        <v>0.005424374052930221</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07521298535163298</v>
+        <v>0.0515940330748621</v>
       </c>
       <c r="N7" t="n">
-        <v>1.145446406354033</v>
+        <v>1.068440992165684</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0784149578503955</v>
+        <v>0.05379049787723103</v>
       </c>
       <c r="P7" t="n">
-        <v>60.34972554154034</v>
+        <v>61.85739700506115</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.82162116324535</v>
+        <v>92.32929262676616</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9927707651418555</v>
+        <v>0.9964824066135879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9914270354476181</v>
+        <v>0.9959530116256052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9809791040933562</v>
+        <v>0.9985411055405463</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9811748698293444</v>
+        <v>0.9981301479259556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9865140069646197</v>
+        <v>0.9986222946599081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006748173413342589</v>
+        <v>0.003283519021711305</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008002486099996445</v>
+        <v>0.003777686005238772</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01273929255498433</v>
+        <v>0.0005896051795476306</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001593839430533905</v>
+        <v>0.001251432875894682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007166565992759114</v>
+        <v>0.0009205190277211564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009823204743483645</v>
+        <v>0.006020453505320425</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08214726662124912</v>
+        <v>0.05730199840940371</v>
       </c>
       <c r="N8" t="n">
-        <v>1.173501636595469</v>
+        <v>1.084422241273891</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08564444582960028</v>
+        <v>0.05974146311318122</v>
       </c>
       <c r="P8" t="n">
-        <v>59.99696683229736</v>
+        <v>61.43767911845897</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.46886245400238</v>
+        <v>91.90957474016398</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9913400507693894</v>
+        <v>0.9956610713811689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.98999071737668</v>
+        <v>0.9951776837229783</v>
       </c>
       <c r="D9" t="n">
-        <v>0.978684065605678</v>
+        <v>0.9982252018946586</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9778030275159552</v>
+        <v>0.9976936495662575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9847991417522834</v>
+        <v>0.9983081413130648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008083682478936864</v>
+        <v>0.004050199408724461</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009343225972140538</v>
+        <v>0.004501420569379484</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01427640031599513</v>
+        <v>0.0007172761187622435</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001879318212561124</v>
+        <v>0.001543567427703807</v>
       </c>
       <c r="K9" t="n">
-        <v>0.008077859264278125</v>
+        <v>0.001130421773233025</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01078686331979628</v>
+        <v>0.006682477018010158</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08990930140389738</v>
+        <v>0.06364117699040819</v>
       </c>
       <c r="N9" t="n">
-        <v>1.207838781534655</v>
+        <v>1.104134286851947</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09373692650257295</v>
+        <v>0.06635051365028777</v>
       </c>
       <c r="P9" t="n">
-        <v>59.63581551585803</v>
+        <v>61.01797832470737</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.10771113756306</v>
+        <v>91.48987394641239</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9895889707116029</v>
+        <v>0.9946486807320066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9882352477864421</v>
+        <v>0.9942158050726407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9759697978590298</v>
+        <v>0.9978378443997086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.973711686862048</v>
+        <v>0.9971552827757691</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9827627754734103</v>
+        <v>0.9979213586907978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009718238849349472</v>
+        <v>0.004995221640903907</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01098187977841832</v>
+        <v>0.005399292067876612</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01609428792059698</v>
+        <v>0.0008738247874333295</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002225713695558011</v>
+        <v>0.001903879299567407</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009160000808077494</v>
+        <v>0.001388852043500368</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01185739639527012</v>
+        <v>0.007417420044476396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09858112826169861</v>
+        <v>0.07067688194101313</v>
       </c>
       <c r="N10" t="n">
-        <v>1.24986470292153</v>
+        <v>1.128431662431841</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1027779309828671</v>
+        <v>0.073685743126557</v>
       </c>
       <c r="P10" t="n">
-        <v>59.26750173052982</v>
+        <v>60.59854699062544</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.73939735223485</v>
+        <v>91.07044261233045</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9874445231283301</v>
+        <v>0.9934007265475617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9860885345047372</v>
+        <v>0.993023207466198</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9727518275818559</v>
+        <v>0.9973625140792992</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9687396429672684</v>
+        <v>0.9964918307708053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9803388339744564</v>
+        <v>0.9974453231318317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01171998653796485</v>
+        <v>0.006160132093225623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01298574239706732</v>
+        <v>0.006512529584506198</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01824953155346092</v>
+        <v>0.00106592725042735</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002646674376201699</v>
+        <v>0.002347906750784081</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01044810296483131</v>
+        <v>0.001706917000605715</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01304642193080077</v>
+        <v>0.008233201343150934</v>
       </c>
       <c r="M11" t="n">
-        <v>0.108258886646616</v>
+        <v>0.07848650898865119</v>
       </c>
       <c r="N11" t="n">
-        <v>1.301331444920078</v>
+        <v>1.158382562858518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.112867691577952</v>
+        <v>0.08182784216576966</v>
       </c>
       <c r="P11" t="n">
-        <v>58.89291928694348</v>
+        <v>60.17931411592232</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.3648149086485</v>
+        <v>90.65120973762734</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9848161623108832</v>
+        <v>0.9918633518330064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9834607494214413</v>
+        <v>0.9915464881498218</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9689270078971886</v>
+        <v>0.9967802784264154</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9626849546710228</v>
+        <v>0.995676068044926</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9774462304869052</v>
+        <v>0.9968606733355089</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01417344598934566</v>
+        <v>0.00759520390631227</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01543866442588993</v>
+        <v>0.007890982245856954</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02081121409313669</v>
+        <v>0.001301234989402652</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003159297707815681</v>
+        <v>0.002893870952051928</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01198525590047619</v>
+        <v>0.00209755297072729</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0143673005105318</v>
+        <v>0.00914112527308231</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1190522825877171</v>
+        <v>0.08715046704586425</v>
       </c>
       <c r="N12" t="n">
-        <v>1.364412104538803</v>
+        <v>1.195279556007845</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1241205847296756</v>
+        <v>0.09086064285434393</v>
       </c>
       <c r="P12" t="n">
-        <v>58.51277013151886</v>
+        <v>59.76047659170813</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.98466575322388</v>
+        <v>90.23237221341316</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9815897015835348</v>
+        <v>0.9899776616110184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9802379566357373</v>
+        <v>0.9897267349381444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9643519242967979</v>
+        <v>0.9960668702679314</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9552924032164013</v>
+        <v>0.9946776495837649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9739742587071082</v>
+        <v>0.9961448722594317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01718520545306775</v>
+        <v>0.009355412956303681</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01844700002709108</v>
+        <v>0.009589641991023568</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0238753877648158</v>
+        <v>0.001589555465670168</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003785191919107414</v>
+        <v>0.003562080862098274</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01383028984196161</v>
+        <v>0.002575818163884221</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01583582961742337</v>
+        <v>0.01014836626255665</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1310923546705442</v>
+        <v>0.09672338370995755</v>
       </c>
       <c r="N13" t="n">
-        <v>1.441847161995166</v>
+        <v>1.240536121335558</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1366732276074538</v>
+        <v>0.100841098399497</v>
       </c>
       <c r="P13" t="n">
-        <v>58.12741282675962</v>
+        <v>59.34360035477312</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.59930844846463</v>
+        <v>89.81549597647813</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9776309045492307</v>
+        <v>0.9876644390320855</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9762874387076647</v>
+        <v>0.9874850399092421</v>
       </c>
       <c r="D14" t="n">
-        <v>0.95888743002465</v>
+        <v>0.9951902310927186</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9462664268467478</v>
+        <v>0.9934558034527438</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9698116879478573</v>
+        <v>0.9952678043364982</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02088056871348429</v>
+        <v>0.01151470469500177</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02213463510525139</v>
+        <v>0.01168216590146469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02753524645599412</v>
+        <v>0.00194384497232397</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004549380899826689</v>
+        <v>0.004379823847690359</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01604231367791041</v>
+        <v>0.003161834410007164</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01746680934850775</v>
+        <v>0.01126314333067171</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1445011028106163</v>
+        <v>0.1073065920388947</v>
       </c>
       <c r="N14" t="n">
-        <v>1.536858290818462</v>
+        <v>1.296053463229949</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1506528139157838</v>
+        <v>0.1118748558172584</v>
       </c>
       <c r="P14" t="n">
-        <v>57.73787255820557</v>
+        <v>58.92826078256702</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.2097681799106</v>
+        <v>89.40015640427204</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9727713941501903</v>
+        <v>0.9848591654038551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9714417629433816</v>
+        <v>0.9847563291544014</v>
       </c>
       <c r="D15" t="n">
-        <v>0.95233683329908</v>
+        <v>0.9940951012184016</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9352321074292818</v>
+        <v>0.9919838587402531</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9648047028557005</v>
+        <v>0.9941993994435436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02541670836313492</v>
+        <v>0.01413330448967402</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02665786073062634</v>
+        <v>0.01422929761454939</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0319225249788533</v>
+        <v>0.002386436444236517</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005483607288554543</v>
+        <v>0.005364949906740537</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01870306613370392</v>
+        <v>0.003875693175488527</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01927820648243518</v>
+        <v>0.01248721637608363</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1594261846847466</v>
+        <v>0.1188835753570443</v>
       </c>
       <c r="N15" t="n">
-        <v>1.653486540395432</v>
+        <v>1.363380030307478</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1662132874244746</v>
+        <v>0.1239446952829209</v>
       </c>
       <c r="P15" t="n">
-        <v>57.34469702329457</v>
+        <v>58.51844249247874</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81659264499959</v>
+        <v>88.99033811418376</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9667992019210194</v>
+        <v>0.9814694349571534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9654928038486449</v>
+        <v>0.9814489831645777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.944488719062615</v>
+        <v>0.99272624221989</v>
       </c>
       <c r="E16" t="n">
-        <v>0.921696709559592</v>
+        <v>0.9902278249792293</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9587808244445292</v>
+        <v>0.99290592800341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03099148766012484</v>
+        <v>0.01729746906969998</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0322109529164387</v>
+        <v>0.0173165599203394</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03717881909633195</v>
+        <v>0.002939654225250669</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006629588784411835</v>
+        <v>0.006540207784211545</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02190420394037189</v>
+        <v>0.004739931004731106</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02129150224135501</v>
+        <v>0.01382778050917374</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1760439935360614</v>
+        <v>0.1315198428743738</v>
       </c>
       <c r="N16" t="n">
-        <v>1.796819153895534</v>
+        <v>1.444733561028317</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1835385508021965</v>
+        <v>0.137118914869143</v>
       </c>
       <c r="P16" t="n">
-        <v>56.94808540762609</v>
+        <v>58.11439016945985</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.41998102933111</v>
+        <v>88.58628579116485</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9594591356183524</v>
+        <v>0.9774161894111069</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9581847702135542</v>
+        <v>0.9774857030862946</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9350166709998143</v>
+        <v>0.9910313838941095</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9051429285172783</v>
+        <v>0.9881594029990987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9514931464160442</v>
+        <v>0.9913574085262985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03784311736199106</v>
+        <v>0.02108099587001769</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0390326815291939</v>
+        <v>0.02101610790552762</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04352274695120982</v>
+        <v>0.003624623066556649</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008031123260427923</v>
+        <v>0.007924537220261449</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02577693510581887</v>
+        <v>0.005774580143409048</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02352793165869769</v>
+        <v>0.01528503020704582</v>
       </c>
       <c r="M17" t="n">
-        <v>0.194533075239125</v>
+        <v>0.1451929608142822</v>
       </c>
       <c r="N17" t="n">
-        <v>1.972980745159543</v>
+        <v>1.542011454133435</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2028147509910349</v>
+        <v>0.1513741257470094</v>
       </c>
       <c r="P17" t="n">
-        <v>56.54861231095052</v>
+        <v>57.71876662802831</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.02050793265555</v>
+        <v>88.19066224973332</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9504466659174903</v>
+        <v>0.9726318424890107</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9492166892361646</v>
+        <v>0.9727736579843679</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9236525660641159</v>
+        <v>0.9885887387207452</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8848876650671633</v>
+        <v>0.9858544469207521</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9427182895724022</v>
+        <v>0.9894642683442827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04625586222604744</v>
+        <v>0.02554697371323621</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04740399146832848</v>
+        <v>0.02541459517330104</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05113388462379631</v>
+        <v>0.004611806365992832</v>
       </c>
       <c r="J18" t="n">
-        <v>0.009746045668399848</v>
+        <v>0.009467171449982697</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03043996514609808</v>
+        <v>0.007039488907987766</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02600890885222325</v>
+        <v>0.01688666467334414</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2150717606429246</v>
+        <v>0.1598342069559461</v>
       </c>
       <c r="N18" t="n">
-        <v>2.189280017980233</v>
+        <v>1.656835780263743</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2242278107534142</v>
+        <v>0.1666386800484816</v>
       </c>
       <c r="P18" t="n">
-        <v>56.14713414444491</v>
+        <v>57.33447283002713</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.61902976614992</v>
+        <v>87.80636845173215</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9393653713202464</v>
+        <v>0.9679413476336893</v>
       </c>
       <c r="C19" t="n">
-        <v>0.938192009357831</v>
+        <v>0.9681624304842898</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9098754120875402</v>
+        <v>0.9857439341605432</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8600031000213909</v>
+        <v>0.9839153255207272</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9320540299951894</v>
+        <v>0.9876327238641903</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05659976431995862</v>
+        <v>0.02992534477175004</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05769504620723594</v>
+        <v>0.02971897363513001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06036116792023447</v>
+        <v>0.005761520447519977</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01185291030211497</v>
+        <v>0.01076496409573634</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03610703911117472</v>
+        <v>0.008263242271628155</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0287651371135756</v>
+        <v>0.01835504584803008</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2379070497483389</v>
+        <v>0.1729894354339306</v>
       </c>
       <c r="N19" t="n">
-        <v>2.455231088314085</v>
+        <v>1.769407656791456</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2480352453916111</v>
+        <v>0.180353953837851</v>
       </c>
       <c r="P19" t="n">
-        <v>55.74350091548</v>
+        <v>57.01809901281963</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.21539653718501</v>
+        <v>87.48999463452465</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9257195642596281</v>
+        <v>0.9622292046161741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9246154359179523</v>
+        <v>0.9626336116834668</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8930305637404136</v>
+        <v>0.9821002213348164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8294287540243003</v>
+        <v>0.9816771028721708</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9190033519475984</v>
+        <v>0.9854097620487915</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06933752622934293</v>
+        <v>0.03525737954450049</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07036818157066457</v>
+        <v>0.03487988329860137</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07164304718562883</v>
+        <v>0.007234109462380725</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01444150319741992</v>
+        <v>0.01226293575074392</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04304227519152437</v>
+        <v>0.009748522606562324</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03183056368509087</v>
+        <v>0.01989358784830785</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2633201971542307</v>
+        <v>0.1877694851260462</v>
       </c>
       <c r="N20" t="n">
-        <v>2.782730457768926</v>
+        <v>1.906499089211821</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2745302830950391</v>
+        <v>0.1957632208442807</v>
       </c>
       <c r="P20" t="n">
-        <v>55.33753803063152</v>
+        <v>56.69016084570821</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.80943365233654</v>
+        <v>87.16205646741322</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9088826601962328</v>
+        <v>0.956959264989992</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9078739220844181</v>
+        <v>0.9575035142888618</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8724625476094638</v>
+        <v>0.9759737473738376</v>
       </c>
       <c r="E21" t="n">
-        <v>0.792056385516777</v>
+        <v>0.9804892330026771</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9030649130530858</v>
+        <v>0.9829619806818091</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08505403711784998</v>
+        <v>0.0401766368619271</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08599564986674345</v>
+        <v>0.03966860403121526</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08541852737614308</v>
+        <v>0.00971009444974546</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01760565420194175</v>
+        <v>0.01305793949868955</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05151209078904241</v>
+        <v>0.01138401697421751</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03524237846267799</v>
+        <v>0.0214393813962311</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2916402529107565</v>
+        <v>0.200441105719179</v>
       </c>
       <c r="N21" t="n">
-        <v>3.186816155290414</v>
+        <v>2.032977640240193</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3040559822557173</v>
+        <v>0.208974298559934</v>
       </c>
       <c r="P21" t="n">
-        <v>54.92893698736961</v>
+        <v>56.42893924978458</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.40083260907463</v>
+        <v>86.90083487148959</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8876549120244253</v>
+        <v>0.9515102477994525</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8867350782401447</v>
+        <v>0.9521804264571103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8447745551432112</v>
+        <v>0.970096692150559</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7462640566072544</v>
+        <v>0.979635794553032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8819689481262474</v>
+        <v>0.9807571267441128</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1048692082457789</v>
+        <v>0.0452630552250846</v>
       </c>
       <c r="H22" t="n">
-        <v>0.105727832707368</v>
+        <v>0.04463747286560423</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1039626295056642</v>
+        <v>0.01208527805379464</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02148268553029582</v>
+        <v>0.01362911887071781</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06272265751798002</v>
+        <v>0.01285719846225622</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03911040858724499</v>
+        <v>0.02301189462737507</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3238351559756582</v>
+        <v>0.2127511579876467</v>
       </c>
       <c r="N22" t="n">
-        <v>3.696282111413794</v>
+        <v>2.16375405281314</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3376214889967289</v>
+        <v>0.2218084152387914</v>
       </c>
       <c r="P22" t="n">
-        <v>54.51008268205634</v>
+        <v>56.19052827437322</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.98197830376135</v>
+        <v>86.66242389607824</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8567248765276716</v>
+        <v>0.947934395465167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8560158144072024</v>
+        <v>0.9487743980727721</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8065439146073023</v>
+        <v>0.9663299598634261</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6711203233200198</v>
+        <v>0.9797671450159648</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8518911698665981</v>
+        <v>0.9796837226311075</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1337410387103523</v>
+        <v>0.04860095641736342</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1344029170755804</v>
+        <v>0.04781685085501717</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1295676965194251</v>
+        <v>0.01360758479234694</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02784476876610843</v>
+        <v>0.01354121015865451</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07870623264276679</v>
+        <v>0.01357439747550072</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04411423068373749</v>
+        <v>0.02406648500441358</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3657062191299901</v>
+        <v>0.220456246038445</v>
       </c>
       <c r="N23" t="n">
-        <v>4.438602963335882</v>
+        <v>2.249574508835992</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3812750899945903</v>
+        <v>0.2298415248396434</v>
       </c>
       <c r="P23" t="n">
-        <v>54.02369979149415</v>
+        <v>56.04822413779942</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.49559541319915</v>
+        <v>86.52011975950442</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8318202847570504</v>
+        <v>0.9224251756038939</v>
       </c>
       <c r="C24" t="n">
-        <v>0.831327481314123</v>
+        <v>0.9232852296994205</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7491541997796254</v>
+        <v>0.8666406812302389</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6709933085130007</v>
+        <v>0.9421086970068954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.815715904232605</v>
+        <v>0.930673634429198</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1569883819429929</v>
+        <v>0.07241269343252166</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1574483923253945</v>
+        <v>0.07160987068635929</v>
       </c>
       <c r="I24" t="n">
-        <v>0.16800460140683</v>
+        <v>0.05389652731770703</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0278555225407625</v>
+        <v>0.03874481880122847</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09793006197379624</v>
+        <v>0.04632067305946775</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04722999036807939</v>
+        <v>0.03061317433876249</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3962175941865693</v>
+        <v>0.269096067292931</v>
       </c>
       <c r="N24" t="n">
-        <v>5.036313165830791</v>
+        <v>2.861795785506546</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4130853974545816</v>
+        <v>0.2805520439832433</v>
       </c>
       <c r="P24" t="n">
-        <v>53.70316695347019</v>
+        <v>55.2507473426085</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.1750625751752</v>
+        <v>85.72264296431351</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7913468219431957</v>
+        <v>0.8538324419358438</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7909629853403167</v>
+        <v>0.8553206790187694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6867040705487089</v>
+        <v>0.6695353380466242</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5949669285857858</v>
+        <v>0.8939835580244895</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7703054723405415</v>
+        <v>0.8469595148512395</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1947685829000362</v>
+        <v>0.1364409994386188</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1951268775203441</v>
+        <v>0.1350517954477656</v>
       </c>
       <c r="I25" t="n">
-        <v>0.209830731483665</v>
+        <v>0.1335557038294162</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03429233551311747</v>
+        <v>0.07095345279724237</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1220615334983912</v>
+        <v>0.1022545783133293</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05242408981858943</v>
+        <v>0.04373675170117425</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4413259372618339</v>
+        <v>0.3693792081839729</v>
       </c>
       <c r="N25" t="n">
-        <v>6.007676273363303</v>
+        <v>4.508021393539748</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4601140960817032</v>
+        <v>0.3851044457967367</v>
       </c>
       <c r="P25" t="n">
-        <v>53.27188635905553</v>
+        <v>53.98372599268809</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.74378198076055</v>
+        <v>84.45562161439311</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.703637818533738</v>
+        <v>0.7779854623601881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7043435883501927</v>
+        <v>0.7790925997401595</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5182948328544448</v>
+        <v>0.5438664861390823</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3788751271170764</v>
+        <v>0.8444072628395821</v>
       </c>
       <c r="F26" t="n">
-        <v>0.646965207731846</v>
+        <v>0.7841234493603901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.276641087602475</v>
+        <v>0.2072408255748721</v>
       </c>
       <c r="H26" t="n">
-        <v>0.275982282458529</v>
+        <v>0.206207361428383</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3226232391804106</v>
+        <v>0.1843441659504113</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05258786020132419</v>
+        <v>0.1041332997598205</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1876055496908674</v>
+        <v>0.1442387328551159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06218703497777346</v>
+        <v>0.0536352084367826</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5259668122633547</v>
+        <v>0.4552371091803392</v>
       </c>
       <c r="N26" t="n">
-        <v>8.112692355190289</v>
+        <v>6.328348903355486</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5483583083628043</v>
+        <v>0.474617495388875</v>
       </c>
       <c r="P26" t="n">
-        <v>52.57006865116533</v>
+        <v>53.14774750675564</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.04196427287035</v>
+        <v>83.61964312846065</v>
       </c>
     </row>
   </sheetData>
